--- a/Backend-Task-page/attendance_report_2025_9.xlsx
+++ b/Backend-Task-page/attendance_report_2025_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE3"/>
+  <dimension ref="A1:AE4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -720,7 +720,8 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Login : 07:53
+ Logout : 03:56</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -834,6 +835,164 @@
         </is>
       </c>
       <c r="AE3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>barathm</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Login : 19:13
+ Logout : 19:14</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
         <is>
           <t>Absent</t>
         </is>
